--- a/dataproject2.xlsx
+++ b/dataproject2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stlp\Documents\GitHub\samhenkels2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4913871E-CB88-4A9A-B779-450420C68550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469330F2-068F-4B1A-860A-22BE7896511D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8130" xr2:uid="{C0926490-6C80-4F60-AE10-58B5248F1896}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Industry</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>Prepackaged Software</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>twentyone</t>
   </si>
 </sst>
 </file>
@@ -479,7 +485,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,11 +499,11 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>2010</v>
-      </c>
-      <c r="C1">
-        <v>2021</v>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">

--- a/dataproject2.xlsx
+++ b/dataproject2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stlp\Documents\GitHub\samhenkels2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469330F2-068F-4B1A-860A-22BE7896511D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF431610-69E0-4842-B78E-204B93E62B6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8130" xr2:uid="{C0926490-6C80-4F60-AE10-58B5248F1896}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Industry</t>
-  </si>
-  <si>
-    <t>Computer And Electronic Products</t>
   </si>
   <si>
     <t>Machinery, Except Electrical</t>
@@ -482,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8364FA1-9B2A-4BAF-B1BD-DCD75EBF8DB7}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -500,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -511,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>7767.9355759999999</v>
+        <v>1509.6911600000001</v>
       </c>
       <c r="C2" s="1">
-        <v>13306.125942000001</v>
+        <v>3919.283465</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -524,10 +521,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1509.6911600000001</v>
+        <v>826.64175299999999</v>
       </c>
       <c r="C3" s="1">
-        <v>3919.283465</v>
+        <v>1857.500747</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -537,10 +534,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>826.64175299999999</v>
+        <v>2295.697424</v>
       </c>
       <c r="C4" s="1">
-        <v>1857.500747</v>
+        <v>1779.9631899999999</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -550,10 +547,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2295.697424</v>
+        <v>1392.3073469999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1779.9631899999999</v>
+        <v>1778.4202419999999</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -563,10 +560,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1392.3073469999999</v>
+        <v>459.23928599999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1778.4202419999999</v>
+        <v>525.44859899999994</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -576,10 +573,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>459.23928599999999</v>
+        <v>474.75232899999997</v>
       </c>
       <c r="C7" s="1">
-        <v>525.44859899999994</v>
+        <v>490.65739100000002</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -589,10 +586,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>474.75232899999997</v>
+        <v>447.029449</v>
       </c>
       <c r="C8" s="1">
-        <v>490.65739100000002</v>
+        <v>443.01218699999998</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -602,10 +599,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>447.029449</v>
+        <v>287.86453499999999</v>
       </c>
       <c r="C9" s="1">
-        <v>443.01218699999998</v>
+        <v>404.32174900000001</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -615,10 +612,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>287.86453499999999</v>
+        <v>280.49327499999998</v>
       </c>
       <c r="C10" s="1">
-        <v>404.32174900000001</v>
+        <v>383.62413800000002</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -628,10 +625,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>280.49327499999998</v>
+        <v>260.69232</v>
       </c>
       <c r="C11" s="1">
-        <v>383.62413800000002</v>
+        <v>335.79201799999998</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -641,10 +638,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>260.69232</v>
+        <v>141.62516099999999</v>
       </c>
       <c r="C12" s="1">
-        <v>335.79201799999998</v>
+        <v>331.83333199999998</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -654,10 +651,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>141.62516099999999</v>
+        <v>581.39197300000001</v>
       </c>
       <c r="C13" s="1">
-        <v>331.83333199999998</v>
+        <v>281.44029499999999</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -667,10 +664,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>581.39197300000001</v>
+        <v>165.72415000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>281.44029499999999</v>
+        <v>240.449457</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -680,10 +677,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>165.72415000000001</v>
+        <v>34.402783999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>240.449457</v>
+        <v>193.348229</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -693,10 +690,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>34.402783999999997</v>
+        <v>315.97053199999999</v>
       </c>
       <c r="C16" s="1">
-        <v>193.348229</v>
+        <v>159.68760700000001</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -706,10 +703,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>315.97053199999999</v>
+        <v>131.225426</v>
       </c>
       <c r="C17" s="1">
-        <v>159.68760700000001</v>
+        <v>144.024261</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -719,10 +716,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>131.225426</v>
+        <v>130.85979699999999</v>
       </c>
       <c r="C18" s="1">
-        <v>144.024261</v>
+        <v>109.158192</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -732,10 +729,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>130.85979699999999</v>
+        <v>26.388566000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>109.158192</v>
+        <v>76.459146000000004</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -745,10 +742,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>26.388566000000001</v>
+        <v>35.624661000000003</v>
       </c>
       <c r="C20" s="1">
-        <v>76.459146000000004</v>
+        <v>49.146735</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -758,10 +755,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>35.624661000000003</v>
+        <v>8.9996779999999994</v>
       </c>
       <c r="C21" s="1">
-        <v>49.146735</v>
+        <v>43.155783999999997</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -771,10 +768,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>8.9996779999999994</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>43.155783999999997</v>
+        <v>32.177453</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -784,10 +781,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>23.743200000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>32.177453</v>
+        <v>31.289905000000001</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -797,10 +794,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>23.743200000000002</v>
+        <v>12.168875999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>31.289905000000001</v>
+        <v>30.969495999999999</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -810,10 +807,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>12.168875999999999</v>
+        <v>31.816860999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>30.969495999999999</v>
+        <v>24.31363</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -823,10 +820,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>31.816860999999999</v>
+        <v>2.1542370000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>24.31363</v>
+        <v>24.034863000000001</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -836,10 +833,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>2.1542370000000002</v>
+        <v>4.9469950000000003</v>
       </c>
       <c r="C27" s="1">
-        <v>24.034863000000001</v>
+        <v>19.299389999999999</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -849,10 +846,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>4.9469950000000003</v>
+        <v>5.7786759999999999</v>
       </c>
       <c r="C28" s="1">
-        <v>19.299389999999999</v>
+        <v>13.386241999999999</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -862,10 +859,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>5.7786759999999999</v>
+        <v>3.8493200000000001</v>
       </c>
       <c r="C29" s="1">
-        <v>13.386241999999999</v>
+        <v>8.7161659999999994</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -875,10 +872,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>3.8493200000000001</v>
+        <v>5.6709999999999998E-3</v>
       </c>
       <c r="C30" s="1">
-        <v>8.7161659999999994</v>
+        <v>0.538659</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -888,52 +885,39 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>5.6709999999999998E-3</v>
+        <v>0.56020899999999996</v>
       </c>
       <c r="C31" s="1">
-        <v>0.538659</v>
+        <v>0.39202599999999999</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B32" s="1">
-        <v>0.56020899999999996</v>
+        <v>17.175498000000001</v>
       </c>
       <c r="C32" s="1">
-        <v>0.39202599999999999</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>17.175498000000001</v>
+        <v>7.4207559999999999</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1">
-        <v>7.4207559999999999</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataproject2.xlsx
+++ b/dataproject2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stlp\Documents\GitHub\samhenkels2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A6A077-00F3-4BAE-B9CE-B8FA8E2D89E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09414948-6945-4B12-A726-5B94FD8EB03E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8130" xr2:uid="{C0926490-6C80-4F60-AE10-58B5248F1896}"/>
   </bookViews>
@@ -90,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +411,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -439,13 +440,13 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>7767935576</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>8966109327</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>12176275437</v>
       </c>
     </row>
@@ -453,13 +454,13 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>1509691160</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>2515993495</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>3444487670</v>
       </c>
     </row>
@@ -467,13 +468,13 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>826641753</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>1176045978</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>1594287757</v>
       </c>
     </row>
@@ -481,13 +482,13 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>2295697424</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>1627133247</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>1825250403</v>
       </c>
     </row>
@@ -495,13 +496,13 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>1392307347</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>1671284327</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>2015028558</v>
       </c>
     </row>
@@ -509,17 +510,18 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>3891904221</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>4100764582</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>3817675480</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dataproject2.xlsx
+++ b/dataproject2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stlp\Documents\GitHub\samhenkels2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09414948-6945-4B12-A726-5B94FD8EB03E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A02600A-182A-424D-9810-8575ACABA60B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8130" xr2:uid="{C0926490-6C80-4F60-AE10-58B5248F1896}"/>
   </bookViews>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8364FA1-9B2A-4BAF-B1BD-DCD75EBF8DB7}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D7"/>
+      <selection activeCell="B8" sqref="B8:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -441,13 +441,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>7767935576</v>
+        <v>7767.9355759999999</v>
       </c>
       <c r="C2" s="2">
-        <v>8966109327</v>
+        <v>8966.1093270000001</v>
       </c>
       <c r="D2" s="2">
-        <v>12176275437</v>
+        <v>12176.275437</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>1509691160</v>
+        <v>1509.6911600000001</v>
       </c>
       <c r="C3" s="2">
-        <v>2515993495</v>
+        <v>2515.9934950000002</v>
       </c>
       <c r="D3" s="2">
-        <v>3444487670</v>
+        <v>3444.48767</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>826641753</v>
+        <v>826.64175299999999</v>
       </c>
       <c r="C4" s="2">
-        <v>1176045978</v>
+        <v>1176.0459780000001</v>
       </c>
       <c r="D4" s="2">
-        <v>1594287757</v>
+        <v>1594.2877570000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>2295697424</v>
+        <v>2295.697424</v>
       </c>
       <c r="C5" s="2">
-        <v>1627133247</v>
+        <v>1627.133247</v>
       </c>
       <c r="D5" s="2">
-        <v>1825250403</v>
+        <v>1825.250403</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>1392307347</v>
+        <v>1392.3073469999999</v>
       </c>
       <c r="C6" s="2">
-        <v>1671284327</v>
+        <v>1671.2843270000001</v>
       </c>
       <c r="D6" s="2">
-        <v>2015028558</v>
+        <v>2015.028558</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -511,14 +511,139 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>3891904221</v>
+        <v>3891.9042209999998</v>
       </c>
       <c r="C7" s="2">
-        <v>4100764582</v>
+        <v>4100.7645819999998</v>
       </c>
       <c r="D7" s="2">
-        <v>3817675480</v>
-      </c>
+        <v>3817.6754799999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataproject2.xlsx
+++ b/dataproject2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stlp\Documents\GitHub\samhenkels2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A02600A-182A-424D-9810-8575ACABA60B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD08BD5D-A211-4F34-B837-D6B9AD5FC6ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8130" xr2:uid="{C0926490-6C80-4F60-AE10-58B5248F1896}"/>
   </bookViews>
@@ -411,7 +411,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -441,13 +441,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>7767.9355759999999</v>
+        <v>7767</v>
       </c>
       <c r="C2" s="2">
-        <v>8966.1093270000001</v>
+        <v>8966</v>
       </c>
       <c r="D2" s="2">
-        <v>12176.275437</v>
+        <v>12176</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>1509.6911600000001</v>
+        <v>1509</v>
       </c>
       <c r="C3" s="2">
-        <v>2515.9934950000002</v>
+        <v>2515</v>
       </c>
       <c r="D3" s="2">
-        <v>3444.48767</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>826.64175299999999</v>
+        <v>826</v>
       </c>
       <c r="C4" s="2">
-        <v>1176.0459780000001</v>
+        <v>1176</v>
       </c>
       <c r="D4" s="2">
-        <v>1594.2877570000001</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>2295.697424</v>
+        <v>2295</v>
       </c>
       <c r="C5" s="2">
-        <v>1627.133247</v>
+        <v>1627</v>
       </c>
       <c r="D5" s="2">
-        <v>1825.250403</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>1392.3073469999999</v>
+        <v>1392</v>
       </c>
       <c r="C6" s="2">
-        <v>1671.2843270000001</v>
+        <v>1671</v>
       </c>
       <c r="D6" s="2">
-        <v>2015.028558</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -511,13 +511,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>3891.9042209999998</v>
+        <v>3891</v>
       </c>
       <c r="C7" s="2">
-        <v>4100.7645819999998</v>
+        <v>4100</v>
       </c>
       <c r="D7" s="2">
-        <v>3817.6754799999999</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
